--- a/Code/Results/Cases/Case_5_194/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_194/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.031318127025095</v>
+        <v>1.053018007093145</v>
       </c>
       <c r="D2">
-        <v>1.05037250416935</v>
+        <v>1.061105909166577</v>
       </c>
       <c r="E2">
-        <v>1.0439784623208</v>
+        <v>1.060020846678674</v>
       </c>
       <c r="F2">
-        <v>1.055984298586014</v>
+        <v>1.071333808338325</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064805619282071</v>
+        <v>1.052944360494308</v>
       </c>
       <c r="J2">
-        <v>1.052600831561292</v>
+        <v>1.058037559175939</v>
       </c>
       <c r="K2">
-        <v>1.061171994306603</v>
+        <v>1.063830872483261</v>
       </c>
       <c r="L2">
-        <v>1.054857309954522</v>
+        <v>1.06274876245121</v>
       </c>
       <c r="M2">
-        <v>1.066715123922077</v>
+        <v>1.074031259345915</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.035506461412787</v>
+        <v>1.053909042993574</v>
       </c>
       <c r="D3">
-        <v>1.053655466641161</v>
+        <v>1.061824267095554</v>
       </c>
       <c r="E3">
-        <v>1.047423992466377</v>
+        <v>1.060798764278585</v>
       </c>
       <c r="F3">
-        <v>1.059640401817808</v>
+        <v>1.072157001239556</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066340381776939</v>
+        <v>1.053212037405383</v>
       </c>
       <c r="J3">
-        <v>1.055073856254455</v>
+        <v>1.058579594282444</v>
       </c>
       <c r="K3">
-        <v>1.063644932842789</v>
+        <v>1.064364029088813</v>
       </c>
       <c r="L3">
-        <v>1.057484007964591</v>
+        <v>1.063341115819466</v>
       </c>
       <c r="M3">
-        <v>1.06956307072493</v>
+        <v>1.074670969082838</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.038166090809248</v>
+        <v>1.054486227100927</v>
       </c>
       <c r="D4">
-        <v>1.055742515982162</v>
+        <v>1.062289602363471</v>
       </c>
       <c r="E4">
-        <v>1.0496170906733</v>
+        <v>1.061303013420159</v>
       </c>
       <c r="F4">
-        <v>1.061966800653891</v>
+        <v>1.07269053622579</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067305650351626</v>
+        <v>1.053384280490473</v>
       </c>
       <c r="J4">
-        <v>1.056641446121003</v>
+        <v>1.058930278682203</v>
       </c>
       <c r="K4">
-        <v>1.065211692077077</v>
+        <v>1.064708852198147</v>
       </c>
       <c r="L4">
-        <v>1.05915140691117</v>
+        <v>1.063724629630746</v>
       </c>
       <c r="M4">
-        <v>1.071370725496828</v>
+        <v>1.075085123189501</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.039272495939001</v>
+        <v>1.054729023267185</v>
       </c>
       <c r="D5">
-        <v>1.056611249916279</v>
+        <v>1.062485349629588</v>
       </c>
       <c r="E5">
-        <v>1.05053062119434</v>
+        <v>1.061515209761781</v>
       </c>
       <c r="F5">
-        <v>1.062935683850905</v>
+        <v>1.072915041796815</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067704932381068</v>
+        <v>1.053456460439743</v>
       </c>
       <c r="J5">
-        <v>1.057292862339814</v>
+        <v>1.05907769354267</v>
       </c>
       <c r="K5">
-        <v>1.065862571019006</v>
+        <v>1.064853775072621</v>
       </c>
       <c r="L5">
-        <v>1.059844875061562</v>
+        <v>1.063885910519064</v>
       </c>
       <c r="M5">
-        <v>1.072122479153529</v>
+        <v>1.075259284557543</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.039457590901953</v>
+        <v>1.054769798445488</v>
       </c>
       <c r="D6">
-        <v>1.056756613469124</v>
+        <v>1.062518223463275</v>
       </c>
       <c r="E6">
-        <v>1.050683519063054</v>
+        <v>1.061550850725491</v>
       </c>
       <c r="F6">
-        <v>1.063097835972022</v>
+        <v>1.072952749383256</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067771595520709</v>
+        <v>1.053468566199315</v>
       </c>
       <c r="J6">
-        <v>1.057401798378437</v>
+        <v>1.059102444356298</v>
       </c>
       <c r="K6">
-        <v>1.065971405745356</v>
+        <v>1.064878105833177</v>
       </c>
       <c r="L6">
-        <v>1.059960877300812</v>
+        <v>1.063912993280929</v>
       </c>
       <c r="M6">
-        <v>1.072248228531147</v>
+        <v>1.075288529964187</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.038180920132503</v>
+        <v>1.054489470775632</v>
       </c>
       <c r="D7">
-        <v>1.055754157750571</v>
+        <v>1.062292217477373</v>
       </c>
       <c r="E7">
-        <v>1.049629330165346</v>
+        <v>1.061305847975071</v>
       </c>
       <c r="F7">
-        <v>1.061979782443837</v>
+        <v>1.072693535267297</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067311010997123</v>
+        <v>1.05338524587132</v>
       </c>
       <c r="J7">
-        <v>1.056650179959745</v>
+        <v>1.058932248498867</v>
       </c>
       <c r="K7">
-        <v>1.065220419478962</v>
+        <v>1.064710788826469</v>
       </c>
       <c r="L7">
-        <v>1.059160702283506</v>
+        <v>1.063726784472503</v>
       </c>
       <c r="M7">
-        <v>1.071380802323985</v>
+        <v>1.075087450143756</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.032744290067132</v>
+        <v>1.053319006685155</v>
       </c>
       <c r="D8">
-        <v>1.051489866202785</v>
+        <v>1.061348575047739</v>
       </c>
       <c r="E8">
-        <v>1.045150592703712</v>
+        <v>1.060283563403291</v>
       </c>
       <c r="F8">
-        <v>1.057228217355193</v>
+        <v>1.071611828152147</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065330150033185</v>
+        <v>1.053035021824434</v>
       </c>
       <c r="J8">
-        <v>1.053443486772129</v>
+        <v>1.058220751789017</v>
       </c>
       <c r="K8">
-        <v>1.062014779250775</v>
+        <v>1.064011088614154</v>
       </c>
       <c r="L8">
-        <v>1.055751824589266</v>
+        <v>1.062948904347877</v>
       </c>
       <c r="M8">
-        <v>1.067685023532658</v>
+        <v>1.074247405984984</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.022759155151734</v>
+        <v>1.051261346774266</v>
       </c>
       <c r="D9">
-        <v>1.043678335747689</v>
+        <v>1.059689734649113</v>
       </c>
       <c r="E9">
-        <v>1.036967345474433</v>
+        <v>1.058489017726863</v>
       </c>
       <c r="F9">
-        <v>1.048540627652342</v>
+        <v>1.069712496700278</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061619676017396</v>
+        <v>1.052410551353993</v>
       </c>
       <c r="J9">
-        <v>1.047533057097191</v>
+        <v>1.056966686436869</v>
       </c>
       <c r="K9">
-        <v>1.056100393754637</v>
+        <v>1.062776921874709</v>
       </c>
       <c r="L9">
-        <v>1.049487831854587</v>
+        <v>1.061579937416452</v>
       </c>
       <c r="M9">
-        <v>1.060892368691736</v>
+        <v>1.072768884507635</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.015803000497578</v>
+        <v>1.049892921084039</v>
       </c>
       <c r="D10">
-        <v>1.038253031149502</v>
+        <v>1.058586616465713</v>
       </c>
       <c r="E10">
-        <v>1.031297797687103</v>
+        <v>1.057297362969619</v>
       </c>
       <c r="F10">
-        <v>1.042517580393248</v>
+        <v>1.068450938233449</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058988052801636</v>
+        <v>1.051989355970345</v>
       </c>
       <c r="J10">
-        <v>1.043403357543977</v>
+        <v>1.056130503079364</v>
       </c>
       <c r="K10">
-        <v>1.051964335881272</v>
+        <v>1.061953410325996</v>
       </c>
       <c r="L10">
-        <v>1.045124054879598</v>
+        <v>1.060668555365913</v>
       </c>
       <c r="M10">
-        <v>1.056159376987651</v>
+        <v>1.07178446386943</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.012713418509442</v>
+        <v>1.049301190159279</v>
       </c>
       <c r="D11">
-        <v>1.035847967655354</v>
+        <v>1.05810963362659</v>
       </c>
       <c r="E11">
-        <v>1.028787685019587</v>
+        <v>1.056782501980701</v>
       </c>
       <c r="F11">
-        <v>1.039849964445084</v>
+        <v>1.067905798036585</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057808643535115</v>
+        <v>1.051805825725086</v>
       </c>
       <c r="J11">
-        <v>1.041566704467901</v>
+        <v>1.055768408735587</v>
       </c>
       <c r="K11">
-        <v>1.050124093011737</v>
+        <v>1.061596662851529</v>
       </c>
       <c r="L11">
-        <v>1.043186388460372</v>
+        <v>1.06027423340318</v>
       </c>
       <c r="M11">
-        <v>1.054057563188868</v>
+        <v>1.071358516317762</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.011553572606925</v>
+        <v>1.049081517574641</v>
       </c>
       <c r="D12">
-        <v>1.034945841286244</v>
+        <v>1.057932564024834</v>
       </c>
       <c r="E12">
-        <v>1.027846633173187</v>
+        <v>1.05659143172121</v>
       </c>
       <c r="F12">
-        <v>1.038849711741088</v>
+        <v>1.067703479233458</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057364343499375</v>
+        <v>1.051737482441217</v>
       </c>
       <c r="J12">
-        <v>1.040876887445125</v>
+        <v>1.055633908785933</v>
       </c>
       <c r="K12">
-        <v>1.049432821195771</v>
+        <v>1.061464127974671</v>
       </c>
       <c r="L12">
-        <v>1.042459098660762</v>
+        <v>1.06012781298416</v>
       </c>
       <c r="M12">
-        <v>1.053268632705374</v>
+        <v>1.07120034895368</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.011802927164063</v>
+        <v>1.049128632516926</v>
       </c>
       <c r="D13">
-        <v>1.035139754140839</v>
+        <v>1.057970541364265</v>
       </c>
       <c r="E13">
-        <v>1.028048891602887</v>
+        <v>1.056632409127271</v>
       </c>
       <c r="F13">
-        <v>1.03906470101573</v>
+        <v>1.06774686955694</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057459932293751</v>
+        <v>1.051752150077552</v>
       </c>
       <c r="J13">
-        <v>1.041025204925947</v>
+        <v>1.055662759551884</v>
       </c>
       <c r="K13">
-        <v>1.049581456154114</v>
+        <v>1.06149255817488</v>
       </c>
       <c r="L13">
-        <v>1.042615452061237</v>
+        <v>1.060159218452738</v>
       </c>
       <c r="M13">
-        <v>1.053438238964218</v>
+        <v>1.071234274170621</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.012617798475944</v>
+        <v>1.049283029444818</v>
       </c>
       <c r="D14">
-        <v>1.03577357899663</v>
+        <v>1.05809499488575</v>
       </c>
       <c r="E14">
-        <v>1.028710076914454</v>
+        <v>1.056766704533804</v>
       </c>
       <c r="F14">
-        <v>1.039767477183872</v>
+        <v>1.067889070811701</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057772045660824</v>
+        <v>1.051800179951752</v>
       </c>
       <c r="J14">
-        <v>1.041509840986291</v>
+        <v>1.055757290961221</v>
       </c>
       <c r="K14">
-        <v>1.050067111726369</v>
+        <v>1.061585707938606</v>
       </c>
       <c r="L14">
-        <v>1.043126426507219</v>
+        <v>1.060262129252139</v>
       </c>
       <c r="M14">
-        <v>1.053992519806002</v>
+        <v>1.071345441155685</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.013118227686941</v>
+        <v>1.049378174781255</v>
       </c>
       <c r="D15">
-        <v>1.03616292425163</v>
+        <v>1.058171688515695</v>
       </c>
       <c r="E15">
-        <v>1.029116291991383</v>
+        <v>1.056849471215075</v>
       </c>
       <c r="F15">
-        <v>1.040199224434377</v>
+        <v>1.067976708350671</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057963518646205</v>
+        <v>1.051829749976759</v>
       </c>
       <c r="J15">
-        <v>1.041807423953986</v>
+        <v>1.055815534655861</v>
       </c>
       <c r="K15">
-        <v>1.050365306899886</v>
+        <v>1.061643097575773</v>
       </c>
       <c r="L15">
-        <v>1.043440243687469</v>
+        <v>1.0603255424353</v>
       </c>
       <c r="M15">
-        <v>1.054332930005023</v>
+        <v>1.071413941278208</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.016006362993279</v>
+        <v>1.049932209432676</v>
       </c>
       <c r="D16">
-        <v>1.038411437835224</v>
+        <v>1.058618286605096</v>
       </c>
       <c r="E16">
-        <v>1.031463190070284</v>
+        <v>1.057331556626969</v>
       </c>
       <c r="F16">
-        <v>1.042693329715585</v>
+        <v>1.068487141208186</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059065467162709</v>
+        <v>1.052001512108056</v>
       </c>
       <c r="J16">
-        <v>1.043524202094174</v>
+        <v>1.056154533742002</v>
       </c>
       <c r="K16">
-        <v>1.052085401406743</v>
+        <v>1.061977083187497</v>
       </c>
       <c r="L16">
-        <v>1.045251610290552</v>
+        <v>1.060694731916309</v>
       </c>
       <c r="M16">
-        <v>1.056297734000615</v>
+        <v>1.071812739328617</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.017796853614949</v>
+        <v>1.050279957673055</v>
       </c>
       <c r="D17">
-        <v>1.039806648261346</v>
+        <v>1.05889860760776</v>
       </c>
       <c r="E17">
-        <v>1.03292029612326</v>
+        <v>1.057634260749678</v>
       </c>
       <c r="F17">
-        <v>1.044241566285858</v>
+        <v>1.068807624189348</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059745856716767</v>
+        <v>1.052108946650097</v>
       </c>
       <c r="J17">
-        <v>1.044587895505096</v>
+        <v>1.056367174043776</v>
       </c>
       <c r="K17">
-        <v>1.053150954024773</v>
+        <v>1.062186541198804</v>
       </c>
       <c r="L17">
-        <v>1.046374726056877</v>
+        <v>1.060926399349553</v>
       </c>
       <c r="M17">
-        <v>1.057515934037332</v>
+        <v>1.072062979678402</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.01883377864406</v>
+        <v>1.050482871048109</v>
       </c>
       <c r="D18">
-        <v>1.040615087335746</v>
+        <v>1.059062179081823</v>
       </c>
       <c r="E18">
-        <v>1.033764907203973</v>
+        <v>1.057810932180459</v>
       </c>
       <c r="F18">
-        <v>1.045138906446105</v>
+        <v>1.068994664715341</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060138882341818</v>
+        <v>1.052171500403443</v>
       </c>
       <c r="J18">
-        <v>1.045203676290581</v>
+        <v>1.056491201383666</v>
       </c>
       <c r="K18">
-        <v>1.053767738224034</v>
+        <v>1.062308698840351</v>
       </c>
       <c r="L18">
-        <v>1.04702520030202</v>
+        <v>1.061061557101786</v>
       </c>
       <c r="M18">
-        <v>1.058221458744171</v>
+        <v>1.072208970748849</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.019186099038005</v>
+        <v>1.05055207240151</v>
       </c>
       <c r="D19">
-        <v>1.040889845726725</v>
+        <v>1.059117963696431</v>
       </c>
       <c r="E19">
-        <v>1.034052011433431</v>
+        <v>1.057871191047817</v>
       </c>
       <c r="F19">
-        <v>1.045443918607239</v>
+        <v>1.06905845900238</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060272250073259</v>
+        <v>1.052192810766174</v>
       </c>
       <c r="J19">
-        <v>1.045412861722004</v>
+        <v>1.056533491099185</v>
       </c>
       <c r="K19">
-        <v>1.053977251924979</v>
+        <v>1.062350348741721</v>
       </c>
       <c r="L19">
-        <v>1.047246221080741</v>
+        <v>1.061107647459219</v>
       </c>
       <c r="M19">
-        <v>1.05846118145331</v>
+        <v>1.072258754992813</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.017605524402482</v>
+        <v>1.050242639529398</v>
       </c>
       <c r="D20">
-        <v>1.039657512873544</v>
+        <v>1.058868525084009</v>
       </c>
       <c r="E20">
-        <v>1.032764512834702</v>
+        <v>1.057601772150455</v>
       </c>
       <c r="F20">
-        <v>1.044076049814874</v>
+        <v>1.068773228191047</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059673255486187</v>
+        <v>1.052097431415872</v>
       </c>
       <c r="J20">
-        <v>1.04447425486795</v>
+        <v>1.05634435996535</v>
       </c>
       <c r="K20">
-        <v>1.053037122263797</v>
+        <v>1.062164069948277</v>
       </c>
       <c r="L20">
-        <v>1.046254706533865</v>
+        <v>1.060901540507532</v>
       </c>
       <c r="M20">
-        <v>1.057385755529279</v>
+        <v>1.072036128132173</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.012378181934302</v>
+        <v>1.04923756000084</v>
       </c>
       <c r="D21">
-        <v>1.035587178914879</v>
+        <v>1.058058343566847</v>
       </c>
       <c r="E21">
-        <v>1.028515617353851</v>
+        <v>1.056727153120657</v>
       </c>
       <c r="F21">
-        <v>1.039560789652709</v>
+        <v>1.067847191364069</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057680309454808</v>
+        <v>1.051786041092141</v>
       </c>
       <c r="J21">
-        <v>1.041367340281582</v>
+        <v>1.055729453862289</v>
       </c>
       <c r="K21">
-        <v>1.049924314115053</v>
+        <v>1.061558278278909</v>
       </c>
       <c r="L21">
-        <v>1.042976168505938</v>
+        <v>1.060231823241972</v>
       </c>
       <c r="M21">
-        <v>1.053829527842101</v>
+        <v>1.071312703897976</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.00902042120422</v>
+        <v>1.048606336826702</v>
       </c>
       <c r="D22">
-        <v>1.032977000011654</v>
+        <v>1.057549547423537</v>
       </c>
       <c r="E22">
-        <v>1.025793709746228</v>
+        <v>1.056178241639776</v>
       </c>
       <c r="F22">
-        <v>1.03666735806136</v>
+        <v>1.067265942843984</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056391188359265</v>
+        <v>1.051589263004012</v>
       </c>
       <c r="J22">
-        <v>1.039369741837753</v>
+        <v>1.055342827097658</v>
       </c>
       <c r="K22">
-        <v>1.04792231029251</v>
+        <v>1.061177260692187</v>
       </c>
       <c r="L22">
-        <v>1.040870939979513</v>
+        <v>1.059811025630284</v>
       </c>
       <c r="M22">
-        <v>1.051545819550018</v>
+        <v>1.070858139837646</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.010807382489746</v>
+        <v>1.048940892361828</v>
       </c>
       <c r="D23">
-        <v>1.034365673844267</v>
+        <v>1.05781921271404</v>
       </c>
       <c r="E23">
-        <v>1.027241566132345</v>
+        <v>1.056469134984967</v>
       </c>
       <c r="F23">
-        <v>1.038206537189482</v>
+        <v>1.067573979459657</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.057078072725816</v>
+        <v>1.051693672811919</v>
       </c>
       <c r="J23">
-        <v>1.04043300455569</v>
+        <v>1.055547785881643</v>
       </c>
       <c r="K23">
-        <v>1.048987973180577</v>
+        <v>1.061379257435859</v>
       </c>
       <c r="L23">
-        <v>1.041991234433972</v>
+        <v>1.060034071387827</v>
       </c>
       <c r="M23">
-        <v>1.052761107132744</v>
+        <v>1.071099085670717</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.017692000780394</v>
+        <v>1.050259501752225</v>
       </c>
       <c r="D24">
-        <v>1.039724917283324</v>
+        <v>1.058882117881051</v>
       </c>
       <c r="E24">
-        <v>1.032834920929574</v>
+        <v>1.057616452012682</v>
       </c>
       <c r="F24">
-        <v>1.044150857229577</v>
+        <v>1.068788769927948</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059706072689727</v>
+        <v>1.0521026349976</v>
       </c>
       <c r="J24">
-        <v>1.044525618538148</v>
+        <v>1.056354668672157</v>
       </c>
       <c r="K24">
-        <v>1.053088572545363</v>
+        <v>1.062174223787703</v>
       </c>
       <c r="L24">
-        <v>1.04630895244459</v>
+        <v>1.060912773055494</v>
       </c>
       <c r="M24">
-        <v>1.057444593114966</v>
+        <v>1.072048261097251</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.025391244911433</v>
+        <v>1.051792717642588</v>
       </c>
       <c r="D25">
-        <v>1.045734800353847</v>
+        <v>1.06011810284193</v>
       </c>
       <c r="E25">
-        <v>1.03911923501447</v>
+        <v>1.058952128357274</v>
       </c>
       <c r="F25">
-        <v>1.05082583747728</v>
+        <v>1.070202705485457</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062605990617838</v>
+        <v>1.052572855841491</v>
       </c>
       <c r="J25">
-        <v>1.04909329965109</v>
+        <v>1.057290922414745</v>
       </c>
       <c r="K25">
-        <v>1.057662329398194</v>
+        <v>1.063096118511559</v>
       </c>
       <c r="L25">
-        <v>1.051139177283498</v>
+        <v>1.061933631584943</v>
       </c>
       <c r="M25">
-        <v>1.062683247467035</v>
+        <v>1.073150902049937</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_194/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_194/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053018007093145</v>
+        <v>1.031318127025094</v>
       </c>
       <c r="D2">
-        <v>1.061105909166577</v>
+        <v>1.05037250416935</v>
       </c>
       <c r="E2">
-        <v>1.060020846678674</v>
+        <v>1.043978462320799</v>
       </c>
       <c r="F2">
-        <v>1.071333808338325</v>
+        <v>1.055984298586013</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052944360494308</v>
+        <v>1.064805619282071</v>
       </c>
       <c r="J2">
-        <v>1.058037559175939</v>
+        <v>1.052600831561291</v>
       </c>
       <c r="K2">
-        <v>1.063830872483261</v>
+        <v>1.061171994306602</v>
       </c>
       <c r="L2">
-        <v>1.06274876245121</v>
+        <v>1.054857309954521</v>
       </c>
       <c r="M2">
-        <v>1.074031259345915</v>
+        <v>1.066715123922076</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053909042993574</v>
+        <v>1.035506461412788</v>
       </c>
       <c r="D3">
-        <v>1.061824267095554</v>
+        <v>1.053655466641163</v>
       </c>
       <c r="E3">
-        <v>1.060798764278585</v>
+        <v>1.047423992466377</v>
       </c>
       <c r="F3">
-        <v>1.072157001239556</v>
+        <v>1.059640401817809</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053212037405383</v>
+        <v>1.06634038177694</v>
       </c>
       <c r="J3">
-        <v>1.058579594282444</v>
+        <v>1.055073856254455</v>
       </c>
       <c r="K3">
-        <v>1.064364029088813</v>
+        <v>1.063644932842791</v>
       </c>
       <c r="L3">
-        <v>1.063341115819466</v>
+        <v>1.057484007964592</v>
       </c>
       <c r="M3">
-        <v>1.074670969082838</v>
+        <v>1.069563070724932</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.054486227100927</v>
+        <v>1.038166090809248</v>
       </c>
       <c r="D4">
-        <v>1.062289602363471</v>
+        <v>1.055742515982162</v>
       </c>
       <c r="E4">
-        <v>1.061303013420159</v>
+        <v>1.0496170906733</v>
       </c>
       <c r="F4">
-        <v>1.07269053622579</v>
+        <v>1.061966800653892</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053384280490473</v>
+        <v>1.067305650351626</v>
       </c>
       <c r="J4">
-        <v>1.058930278682203</v>
+        <v>1.056641446121003</v>
       </c>
       <c r="K4">
-        <v>1.064708852198147</v>
+        <v>1.065211692077077</v>
       </c>
       <c r="L4">
-        <v>1.063724629630746</v>
+        <v>1.05915140691117</v>
       </c>
       <c r="M4">
-        <v>1.075085123189501</v>
+        <v>1.071370725496828</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.054729023267185</v>
+        <v>1.039272495939001</v>
       </c>
       <c r="D5">
-        <v>1.062485349629588</v>
+        <v>1.056611249916279</v>
       </c>
       <c r="E5">
-        <v>1.061515209761781</v>
+        <v>1.05053062119434</v>
       </c>
       <c r="F5">
-        <v>1.072915041796815</v>
+        <v>1.062935683850905</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053456460439743</v>
+        <v>1.067704932381068</v>
       </c>
       <c r="J5">
-        <v>1.05907769354267</v>
+        <v>1.057292862339814</v>
       </c>
       <c r="K5">
-        <v>1.064853775072621</v>
+        <v>1.065862571019006</v>
       </c>
       <c r="L5">
-        <v>1.063885910519064</v>
+        <v>1.059844875061562</v>
       </c>
       <c r="M5">
-        <v>1.075259284557543</v>
+        <v>1.072122479153528</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054769798445488</v>
+        <v>1.039457590901953</v>
       </c>
       <c r="D6">
-        <v>1.062518223463275</v>
+        <v>1.056756613469124</v>
       </c>
       <c r="E6">
-        <v>1.061550850725491</v>
+        <v>1.050683519063054</v>
       </c>
       <c r="F6">
-        <v>1.072952749383256</v>
+        <v>1.063097835972022</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053468566199315</v>
+        <v>1.067771595520709</v>
       </c>
       <c r="J6">
-        <v>1.059102444356298</v>
+        <v>1.057401798378436</v>
       </c>
       <c r="K6">
-        <v>1.064878105833177</v>
+        <v>1.065971405745356</v>
       </c>
       <c r="L6">
-        <v>1.063912993280929</v>
+        <v>1.059960877300811</v>
       </c>
       <c r="M6">
-        <v>1.075288529964187</v>
+        <v>1.072248228531147</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.054489470775632</v>
+        <v>1.038180920132502</v>
       </c>
       <c r="D7">
-        <v>1.062292217477373</v>
+        <v>1.05575415775057</v>
       </c>
       <c r="E7">
-        <v>1.061305847975071</v>
+        <v>1.049629330165346</v>
       </c>
       <c r="F7">
-        <v>1.072693535267297</v>
+        <v>1.061979782443836</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05338524587132</v>
+        <v>1.067311010997122</v>
       </c>
       <c r="J7">
-        <v>1.058932248498867</v>
+        <v>1.056650179959744</v>
       </c>
       <c r="K7">
-        <v>1.064710788826469</v>
+        <v>1.065220419478961</v>
       </c>
       <c r="L7">
-        <v>1.063726784472503</v>
+        <v>1.059160702283505</v>
       </c>
       <c r="M7">
-        <v>1.075087450143756</v>
+        <v>1.071380802323984</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053319006685155</v>
+        <v>1.03274429006713</v>
       </c>
       <c r="D8">
-        <v>1.061348575047739</v>
+        <v>1.051489866202783</v>
       </c>
       <c r="E8">
-        <v>1.060283563403291</v>
+        <v>1.04515059270371</v>
       </c>
       <c r="F8">
-        <v>1.071611828152147</v>
+        <v>1.05722821735519</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053035021824434</v>
+        <v>1.065330150033184</v>
       </c>
       <c r="J8">
-        <v>1.058220751789017</v>
+        <v>1.053443486772128</v>
       </c>
       <c r="K8">
-        <v>1.064011088614154</v>
+        <v>1.062014779250774</v>
       </c>
       <c r="L8">
-        <v>1.062948904347877</v>
+        <v>1.055751824589264</v>
       </c>
       <c r="M8">
-        <v>1.074247405984984</v>
+        <v>1.067685023532657</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.051261346774266</v>
+        <v>1.022759155151735</v>
       </c>
       <c r="D9">
-        <v>1.059689734649113</v>
+        <v>1.04367833574769</v>
       </c>
       <c r="E9">
-        <v>1.058489017726863</v>
+        <v>1.036967345474433</v>
       </c>
       <c r="F9">
-        <v>1.069712496700278</v>
+        <v>1.048540627652343</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052410551353993</v>
+        <v>1.061619676017396</v>
       </c>
       <c r="J9">
-        <v>1.056966686436869</v>
+        <v>1.047533057097191</v>
       </c>
       <c r="K9">
-        <v>1.062776921874709</v>
+        <v>1.056100393754637</v>
       </c>
       <c r="L9">
-        <v>1.061579937416452</v>
+        <v>1.049487831854588</v>
       </c>
       <c r="M9">
-        <v>1.072768884507635</v>
+        <v>1.060892368691737</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.049892921084039</v>
+        <v>1.015803000497578</v>
       </c>
       <c r="D10">
-        <v>1.058586616465713</v>
+        <v>1.038253031149502</v>
       </c>
       <c r="E10">
-        <v>1.057297362969619</v>
+        <v>1.031297797687103</v>
       </c>
       <c r="F10">
-        <v>1.068450938233449</v>
+        <v>1.042517580393248</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051989355970345</v>
+        <v>1.058988052801635</v>
       </c>
       <c r="J10">
-        <v>1.056130503079364</v>
+        <v>1.043403357543978</v>
       </c>
       <c r="K10">
-        <v>1.061953410325996</v>
+        <v>1.051964335881273</v>
       </c>
       <c r="L10">
-        <v>1.060668555365913</v>
+        <v>1.045124054879597</v>
       </c>
       <c r="M10">
-        <v>1.07178446386943</v>
+        <v>1.056159376987651</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049301190159279</v>
+        <v>1.012713418509442</v>
       </c>
       <c r="D11">
-        <v>1.05810963362659</v>
+        <v>1.035847967655354</v>
       </c>
       <c r="E11">
-        <v>1.056782501980701</v>
+        <v>1.028787685019586</v>
       </c>
       <c r="F11">
-        <v>1.067905798036585</v>
+        <v>1.039849964445083</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051805825725086</v>
+        <v>1.057808643535114</v>
       </c>
       <c r="J11">
-        <v>1.055768408735587</v>
+        <v>1.0415667044679</v>
       </c>
       <c r="K11">
-        <v>1.061596662851529</v>
+        <v>1.050124093011737</v>
       </c>
       <c r="L11">
-        <v>1.06027423340318</v>
+        <v>1.04318638846037</v>
       </c>
       <c r="M11">
-        <v>1.071358516317762</v>
+        <v>1.054057563188867</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049081517574641</v>
+        <v>1.011553572606925</v>
       </c>
       <c r="D12">
-        <v>1.057932564024834</v>
+        <v>1.034945841286244</v>
       </c>
       <c r="E12">
-        <v>1.05659143172121</v>
+        <v>1.027846633173186</v>
       </c>
       <c r="F12">
-        <v>1.067703479233458</v>
+        <v>1.038849711741087</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051737482441217</v>
+        <v>1.057364343499374</v>
       </c>
       <c r="J12">
-        <v>1.055633908785933</v>
+        <v>1.040876887445124</v>
       </c>
       <c r="K12">
-        <v>1.061464127974671</v>
+        <v>1.049432821195771</v>
       </c>
       <c r="L12">
-        <v>1.06012781298416</v>
+        <v>1.042459098660762</v>
       </c>
       <c r="M12">
-        <v>1.07120034895368</v>
+        <v>1.053268632705374</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049128632516926</v>
+        <v>1.011802927164064</v>
       </c>
       <c r="D13">
-        <v>1.057970541364265</v>
+        <v>1.03513975414084</v>
       </c>
       <c r="E13">
-        <v>1.056632409127271</v>
+        <v>1.028048891602887</v>
       </c>
       <c r="F13">
-        <v>1.06774686955694</v>
+        <v>1.039064701015731</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051752150077552</v>
+        <v>1.057459932293751</v>
       </c>
       <c r="J13">
-        <v>1.055662759551884</v>
+        <v>1.041025204925947</v>
       </c>
       <c r="K13">
-        <v>1.06149255817488</v>
+        <v>1.049581456154115</v>
       </c>
       <c r="L13">
-        <v>1.060159218452738</v>
+        <v>1.042615452061238</v>
       </c>
       <c r="M13">
-        <v>1.071234274170621</v>
+        <v>1.053438238964218</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049283029444818</v>
+        <v>1.012617798475943</v>
       </c>
       <c r="D14">
-        <v>1.05809499488575</v>
+        <v>1.035773578996629</v>
       </c>
       <c r="E14">
-        <v>1.056766704533804</v>
+        <v>1.028710076914453</v>
       </c>
       <c r="F14">
-        <v>1.067889070811701</v>
+        <v>1.039767477183872</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051800179951752</v>
+        <v>1.057772045660823</v>
       </c>
       <c r="J14">
-        <v>1.055757290961221</v>
+        <v>1.04150984098629</v>
       </c>
       <c r="K14">
-        <v>1.061585707938606</v>
+        <v>1.050067111726368</v>
       </c>
       <c r="L14">
-        <v>1.060262129252139</v>
+        <v>1.043126426507218</v>
       </c>
       <c r="M14">
-        <v>1.071345441155685</v>
+        <v>1.053992519806001</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.049378174781255</v>
+        <v>1.01311822768694</v>
       </c>
       <c r="D15">
-        <v>1.058171688515695</v>
+        <v>1.036162924251629</v>
       </c>
       <c r="E15">
-        <v>1.056849471215075</v>
+        <v>1.029116291991382</v>
       </c>
       <c r="F15">
-        <v>1.067976708350671</v>
+        <v>1.040199224434377</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051829749976759</v>
+        <v>1.057963518646204</v>
       </c>
       <c r="J15">
-        <v>1.055815534655861</v>
+        <v>1.041807423953985</v>
       </c>
       <c r="K15">
-        <v>1.061643097575773</v>
+        <v>1.050365306899885</v>
       </c>
       <c r="L15">
-        <v>1.0603255424353</v>
+        <v>1.043440243687469</v>
       </c>
       <c r="M15">
-        <v>1.071413941278208</v>
+        <v>1.054332930005022</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.049932209432676</v>
+        <v>1.016006362993279</v>
       </c>
       <c r="D16">
-        <v>1.058618286605096</v>
+        <v>1.038411437835225</v>
       </c>
       <c r="E16">
-        <v>1.057331556626969</v>
+        <v>1.031463190070284</v>
       </c>
       <c r="F16">
-        <v>1.068487141208186</v>
+        <v>1.042693329715585</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052001512108056</v>
+        <v>1.059065467162709</v>
       </c>
       <c r="J16">
-        <v>1.056154533742002</v>
+        <v>1.043524202094175</v>
       </c>
       <c r="K16">
-        <v>1.061977083187497</v>
+        <v>1.052085401406744</v>
       </c>
       <c r="L16">
-        <v>1.060694731916309</v>
+        <v>1.045251610290552</v>
       </c>
       <c r="M16">
-        <v>1.071812739328617</v>
+        <v>1.056297734000616</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.050279957673055</v>
+        <v>1.017796853614948</v>
       </c>
       <c r="D17">
-        <v>1.05889860760776</v>
+        <v>1.039806648261344</v>
       </c>
       <c r="E17">
-        <v>1.057634260749678</v>
+        <v>1.032920296123258</v>
       </c>
       <c r="F17">
-        <v>1.068807624189348</v>
+        <v>1.044241566285857</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052108946650097</v>
+        <v>1.059745856716767</v>
       </c>
       <c r="J17">
-        <v>1.056367174043776</v>
+        <v>1.044587895505094</v>
       </c>
       <c r="K17">
-        <v>1.062186541198804</v>
+        <v>1.053150954024772</v>
       </c>
       <c r="L17">
-        <v>1.060926399349553</v>
+        <v>1.046374726056875</v>
       </c>
       <c r="M17">
-        <v>1.072062979678402</v>
+        <v>1.057515934037331</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.050482871048109</v>
+        <v>1.018833778644058</v>
       </c>
       <c r="D18">
-        <v>1.059062179081823</v>
+        <v>1.040615087335744</v>
       </c>
       <c r="E18">
-        <v>1.057810932180459</v>
+        <v>1.033764907203971</v>
       </c>
       <c r="F18">
-        <v>1.068994664715341</v>
+        <v>1.045138906446103</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052171500403443</v>
+        <v>1.060138882341817</v>
       </c>
       <c r="J18">
-        <v>1.056491201383666</v>
+        <v>1.04520367629058</v>
       </c>
       <c r="K18">
-        <v>1.062308698840351</v>
+        <v>1.053767738224033</v>
       </c>
       <c r="L18">
-        <v>1.061061557101786</v>
+        <v>1.047025200302018</v>
       </c>
       <c r="M18">
-        <v>1.072208970748849</v>
+        <v>1.058221458744169</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.05055207240151</v>
+        <v>1.019186099038005</v>
       </c>
       <c r="D19">
-        <v>1.059117963696431</v>
+        <v>1.040889845726726</v>
       </c>
       <c r="E19">
-        <v>1.057871191047817</v>
+        <v>1.03405201143343</v>
       </c>
       <c r="F19">
-        <v>1.06905845900238</v>
+        <v>1.045443918607239</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052192810766174</v>
+        <v>1.060272250073259</v>
       </c>
       <c r="J19">
-        <v>1.056533491099185</v>
+        <v>1.045412861722004</v>
       </c>
       <c r="K19">
-        <v>1.062350348741721</v>
+        <v>1.053977251924979</v>
       </c>
       <c r="L19">
-        <v>1.061107647459219</v>
+        <v>1.047246221080741</v>
       </c>
       <c r="M19">
-        <v>1.072258754992813</v>
+        <v>1.05846118145331</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.050242639529398</v>
+        <v>1.017605524402482</v>
       </c>
       <c r="D20">
-        <v>1.058868525084009</v>
+        <v>1.039657512873544</v>
       </c>
       <c r="E20">
-        <v>1.057601772150455</v>
+        <v>1.032764512834702</v>
       </c>
       <c r="F20">
-        <v>1.068773228191047</v>
+        <v>1.044076049814874</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052097431415872</v>
+        <v>1.059673255486187</v>
       </c>
       <c r="J20">
-        <v>1.05634435996535</v>
+        <v>1.04447425486795</v>
       </c>
       <c r="K20">
-        <v>1.062164069948277</v>
+        <v>1.053037122263797</v>
       </c>
       <c r="L20">
-        <v>1.060901540507532</v>
+        <v>1.046254706533865</v>
       </c>
       <c r="M20">
-        <v>1.072036128132173</v>
+        <v>1.057385755529279</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.04923756000084</v>
+        <v>1.012378181934301</v>
       </c>
       <c r="D21">
-        <v>1.058058343566847</v>
+        <v>1.035587178914878</v>
       </c>
       <c r="E21">
-        <v>1.056727153120657</v>
+        <v>1.02851561735385</v>
       </c>
       <c r="F21">
-        <v>1.067847191364069</v>
+        <v>1.039560789652709</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051786041092141</v>
+        <v>1.057680309454808</v>
       </c>
       <c r="J21">
-        <v>1.055729453862289</v>
+        <v>1.041367340281581</v>
       </c>
       <c r="K21">
-        <v>1.061558278278909</v>
+        <v>1.049924314115052</v>
       </c>
       <c r="L21">
-        <v>1.060231823241972</v>
+        <v>1.042976168505937</v>
       </c>
       <c r="M21">
-        <v>1.071312703897976</v>
+        <v>1.053829527842101</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.048606336826702</v>
+        <v>1.009020421204219</v>
       </c>
       <c r="D22">
-        <v>1.057549547423537</v>
+        <v>1.032977000011653</v>
       </c>
       <c r="E22">
-        <v>1.056178241639776</v>
+        <v>1.025793709746227</v>
       </c>
       <c r="F22">
-        <v>1.067265942843984</v>
+        <v>1.036667358061359</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051589263004012</v>
+        <v>1.056391188359265</v>
       </c>
       <c r="J22">
-        <v>1.055342827097658</v>
+        <v>1.039369741837752</v>
       </c>
       <c r="K22">
-        <v>1.061177260692187</v>
+        <v>1.047922310292509</v>
       </c>
       <c r="L22">
-        <v>1.059811025630284</v>
+        <v>1.040870939979512</v>
       </c>
       <c r="M22">
-        <v>1.070858139837646</v>
+        <v>1.051545819550017</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>1.048940892361828</v>
+        <v>1.010807382489746</v>
       </c>
       <c r="D23">
-        <v>1.05781921271404</v>
+        <v>1.034365673844266</v>
       </c>
       <c r="E23">
-        <v>1.056469134984967</v>
+        <v>1.027241566132344</v>
       </c>
       <c r="F23">
-        <v>1.067573979459657</v>
+        <v>1.038206537189481</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051693672811919</v>
+        <v>1.057078072725816</v>
       </c>
       <c r="J23">
-        <v>1.055547785881643</v>
+        <v>1.04043300455569</v>
       </c>
       <c r="K23">
-        <v>1.061379257435859</v>
+        <v>1.048987973180576</v>
       </c>
       <c r="L23">
-        <v>1.060034071387827</v>
+        <v>1.041991234433971</v>
       </c>
       <c r="M23">
-        <v>1.071099085670717</v>
+        <v>1.052761107132743</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.050259501752225</v>
+        <v>1.017692000780395</v>
       </c>
       <c r="D24">
-        <v>1.058882117881051</v>
+        <v>1.039724917283325</v>
       </c>
       <c r="E24">
-        <v>1.057616452012682</v>
+        <v>1.032834920929575</v>
       </c>
       <c r="F24">
-        <v>1.068788769927948</v>
+        <v>1.044150857229577</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0521026349976</v>
+        <v>1.059706072689728</v>
       </c>
       <c r="J24">
-        <v>1.056354668672157</v>
+        <v>1.044525618538149</v>
       </c>
       <c r="K24">
-        <v>1.062174223787703</v>
+        <v>1.053088572545364</v>
       </c>
       <c r="L24">
-        <v>1.060912773055494</v>
+        <v>1.046308952444591</v>
       </c>
       <c r="M24">
-        <v>1.072048261097251</v>
+        <v>1.057444593114966</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.051792717642588</v>
+        <v>1.025391244911434</v>
       </c>
       <c r="D25">
-        <v>1.06011810284193</v>
+        <v>1.045734800353848</v>
       </c>
       <c r="E25">
-        <v>1.058952128357274</v>
+        <v>1.03911923501447</v>
       </c>
       <c r="F25">
-        <v>1.070202705485457</v>
+        <v>1.05082583747728</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052572855841491</v>
+        <v>1.062605990617838</v>
       </c>
       <c r="J25">
-        <v>1.057290922414745</v>
+        <v>1.04909329965109</v>
       </c>
       <c r="K25">
-        <v>1.063096118511559</v>
+        <v>1.057662329398194</v>
       </c>
       <c r="L25">
-        <v>1.061933631584943</v>
+        <v>1.051139177283499</v>
       </c>
       <c r="M25">
-        <v>1.073150902049937</v>
+        <v>1.062683247467036</v>
       </c>
     </row>
   </sheetData>
